--- a/fuck.xlsx
+++ b/fuck.xlsx
@@ -338,20 +338,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>111111</v>
       </c>
       <c r="B1">
         <v>222222</v>
+      </c>
+      <c r="C1">
+        <v>3333</v>
+      </c>
+      <c r="D1">
+        <v>4444</v>
       </c>
     </row>
   </sheetData>

--- a/fuck.xlsx
+++ b/fuck.xlsx
@@ -338,15 +338,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>111111</v>
       </c>
@@ -358,6 +358,9 @@
       </c>
       <c r="D1">
         <v>4444</v>
+      </c>
+      <c r="E1">
+        <v>5555</v>
       </c>
     </row>
   </sheetData>
